--- a/normativa/Anexos/L05T02C03/L05T02C03A10.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -871,16 +871,16 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>20</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1591,7 +1591,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -1613,7 +1613,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>16</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="15"/>
       <c r="C33" s="26"/>
@@ -1659,7 +1659,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="22"/>
       <c r="C35" s="15"/>
@@ -1709,7 +1709,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="24"/>
       <c r="C38" s="15"/>
@@ -1779,7 +1779,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="24"/>
       <c r="C41" s="15"/>
@@ -1849,7 +1849,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>26</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="24"/>
       <c r="C43" s="15"/>
@@ -1895,7 +1895,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="24"/>
       <c r="C45" s="15"/>
@@ -1941,7 +1941,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="24"/>
       <c r="C47" s="15"/>
@@ -1987,7 +1987,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="29"/>
       <c r="C49" s="26"/>
@@ -2033,7 +2033,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>30</v>
       </c>
@@ -2230,7 +2230,7 @@
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
@@ -2247,7 +2247,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
